--- a/Lissage de Holt/Lissage Holt de la serie de l'indice de salaire annuel en Italie 1962-1991.xlsx
+++ b/Lissage de Holt/Lissage Holt de la serie de l'indice de salaire annuel en Italie 1962-1991.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YsfDS\Desktop\Lissage Holt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Time-Series-Analysis\Lissage de Holt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF3C9EE-10A3-4F2B-8498-A21FE0A2AAF5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C240E248-9606-4AAC-8EE9-E4A576C312B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3218C48F-BBFD-45F4-837D-704E92E006B1}"/>
   </bookViews>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le lissage de Holt s'applique aux séries sans composante linèaire. On verra par la suite </t>
   </si>
   <si>
     <t xml:space="preserve">un autre modèle de lissage exponentiel pour les séries à composante saisonière. </t>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>Change the initial values and see what happens!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le lissage de Holt s'applique aux séries sans composante saisonière. On verra par la suite </t>
   </si>
 </sst>
 </file>
@@ -1931,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431306AB-EBF3-49B2-8C74-7E9F7E60C232}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1948,29 +1948,29 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
       </c>
       <c r="H1">
         <f>AVERAGE(G4:G31)</f>
         <v>23.987889563394251</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J1" s="15">
         <v>0.4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1992,13 +1992,13 @@
         <v>3.8</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" s="15">
         <v>0.3</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -2028,7 +2028,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -2086,7 +2086,7 @@
         <v>0.33408000000000027</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F31" si="0">E4+D4</f>
+        <f t="shared" ref="F5:F30" si="0">E4+D4</f>
         <v>4.6639999999999997</v>
       </c>
       <c r="G5">
@@ -2105,11 +2105,11 @@
         <v>5.6</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D5:D31" si="2">$J$1*C6+(1-$J$1)*(D5-E5)</f>
+        <f t="shared" ref="D6:D31" si="2">$J$1*C6+(1-$J$1)*(D5-E5)</f>
         <v>4.7381119999999992</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E5:E31" si="3">$J$2*(D6-D5)+(1-$J$2)*E5</f>
+        <f t="shared" ref="E6:E31" si="3">$J$2*(D6-D5)+(1-$J$2)*E5</f>
         <v>0.30600959999999988</v>
       </c>
       <c r="F6">
@@ -2202,7 +2202,7 @@
         <v>15.797555044848474</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -2267,7 +2267,7 @@
         <v>24.011119572491374</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -2819,12 +2819,12 @@
         <v>23.987889563394251</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="10:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J33" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="35" spans="10:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J35" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
@@ -2850,13 +2850,13 @@
     <row r="36" spans="10:18" x14ac:dyDescent="0.25">
       <c r="L36" s="9"/>
       <c r="M36" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N36" s="11"/>
     </row>
     <row r="37" spans="10:18" x14ac:dyDescent="0.25">
       <c r="M37" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N37" s="8">
         <v>4.5956999999999999</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="38" spans="10:18" x14ac:dyDescent="0.25">
       <c r="M38" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N38" s="8">
         <v>0.40429999999999999</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="39" spans="10:18" x14ac:dyDescent="0.25">
       <c r="M39" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N39" s="8">
         <v>0.99690000000000001</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="40" spans="10:18" x14ac:dyDescent="0.25">
       <c r="M40" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N40" s="8">
         <v>0.75900000000000001</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="41" spans="10:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J41" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
